--- a/biology/Botanique/Belle_fleur_jaune/Belle_fleur_jaune.xlsx
+++ b/biology/Botanique/Belle_fleur_jaune/Belle_fleur_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Belle fleur jaune est une ancienne variété de pomme d'hiver. Cette pomme est donc particulièrement appréciée pour sa longue durée de conservation.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Belle Flavoise,
 Linneous Pippin,
@@ -550,9 +564,11 @@
           <t>Origine et historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété est originaire du Connecticut. Elle y est obtenue à Westfield, en 1817. Pour d'autres, la variété est originaire de l'État du New Jersey[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété est originaire du Connecticut. Elle y est obtenue à Westfield, en 1817. Pour d'autres, la variété est originaire de l'État du New Jersey.
 Elle est encore fréquente en Basse-Normandie où elle a été importée par les pépinières Baumann au XIXe siècle.
 </t>
         </is>
@@ -582,10 +598,12 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Descendants:
-Belfleur Kitaika (Russie 1914)[2]</t>
+Belfleur Kitaika (Russie 1914)</t>
         </is>
       </c>
     </row>
@@ -613,7 +631,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe plusieurs variétés de pommes nommées "belle fleur", dont :
 Belle fleur d'Argonne (bonne conservation, jusqu'en mars) ;
@@ -647,7 +667,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La "Belle fleur jaune" est une pomme assez grosse à grosse. Exceptionnellement le fruit peut être très gros lorsque l'arbre est conduit sous une forme de cordon avec porte-greffe adapté.
 Le fruit est de forme conique allongée, renflée à la base, plus haute que large, avec un pourtour côtelé et très irrégulier vers le sommet, souvent plus volumineux d'un côté que de l'autre.
@@ -681,7 +703,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Vigueur et croissance : le cultivar est vigoureux. L'arbre est à croissance rapide et donne des rameaux longs et fins ayant tendance à fléchir (Port type 4).
 Convient à toutes les formes.
